--- a/Data Finland +WC  8_1.xlsx
+++ b/Data Finland +WC  8_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\hravoaha\Desktop\Thèse\composting code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{776DC05B-7D84-4507-AE1D-158620B12ECF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2839F259-D370-4F7F-B92B-4E2D07A93364}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="2" xr2:uid="{14B8D0C9-091E-43B5-9C59-8A05020574F1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" firstSheet="1" activeTab="9" xr2:uid="{14B8D0C9-091E-43B5-9C59-8A05020574F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Composition of waste" sheetId="4" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="tech" sheetId="3" r:id="rId7"/>
     <sheet name="aer" sheetId="9" r:id="rId8"/>
     <sheet name="reg" sheetId="8" r:id="rId9"/>
+    <sheet name="Feuil1" sheetId="11" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Composition (mass)'!$B$1:$B$98</definedName>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="678">
   <si>
     <t>Valeurs</t>
   </si>
@@ -1652,9 +1653,6 @@
     <t>kNO3</t>
   </si>
   <si>
-    <t>kg(N2O+N2).kg-1(NO3).h-1</t>
-  </si>
-  <si>
     <t>pN2Odenit</t>
   </si>
   <si>
@@ -2007,6 +2005,75 @@
   </si>
   <si>
     <t>C/N</t>
+  </si>
+  <si>
+    <t>m(H)</t>
+  </si>
+  <si>
+    <t>masse H(g)</t>
+  </si>
+  <si>
+    <t>masse H (kg/kgTM)</t>
+  </si>
+  <si>
+    <t>m(O)</t>
+  </si>
+  <si>
+    <t>masse O (g)</t>
+  </si>
+  <si>
+    <t>masse O(kg/kgTM)</t>
+  </si>
+  <si>
+    <t>gN2O/gNO3</t>
+  </si>
+  <si>
+    <t>rendement de la production de N2O</t>
+  </si>
+  <si>
+    <t>pN2O</t>
+  </si>
+  <si>
+    <t>pN2</t>
+  </si>
+  <si>
+    <t>gN2/gNO3</t>
+  </si>
+  <si>
+    <t>rendement de la production de N2</t>
+  </si>
+  <si>
+    <t>pH2Odenit</t>
+  </si>
+  <si>
+    <t>gH2O/gNO3</t>
+  </si>
+  <si>
+    <t>C(Xi)</t>
+  </si>
+  <si>
+    <t>Xi(C1.48H1.5O0.85N0.12)</t>
+  </si>
+  <si>
+    <t>m(formé)(kg/kgTM)</t>
+  </si>
+  <si>
+    <t>minit(kg/kgTM)</t>
+  </si>
+  <si>
+    <t>m(kg/kginit_element)</t>
+  </si>
+  <si>
+    <t>N(Xi)</t>
+  </si>
+  <si>
+    <t>M(molairedeXi)</t>
+  </si>
+  <si>
+    <t>H(Xi)</t>
+  </si>
+  <si>
+    <t>O(Xi)</t>
   </si>
 </sst>
 </file>
@@ -2684,7 +2751,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G96" sqref="G96"/>
+      <selection pane="bottomLeft" activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -25819,7 +25886,7 @@
     </row>
     <row r="96" spans="1:83" x14ac:dyDescent="0.35">
       <c r="B96" s="40" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D96" s="41">
         <v>10</v>
@@ -25842,7 +25909,7 @@
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A97" s="40" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E97" s="41">
         <v>58.85</v>
@@ -26002,12 +26069,160 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32535CBA-ADF9-47F6-911B-0E085DE161C1}">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="21.1796875" customWidth="1"/>
+    <col min="2" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>672</v>
+      </c>
+      <c r="C1" t="s">
+        <v>437</v>
+      </c>
+      <c r="D1" t="s">
+        <v>675</v>
+      </c>
+      <c r="E1" t="s">
+        <v>671</v>
+      </c>
+      <c r="F1" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>670</v>
+      </c>
+      <c r="D2">
+        <v>3.4540000000000001E-2</v>
+      </c>
+      <c r="E2">
+        <f>0.0379-0.01274</f>
+        <v>2.5160000000000002E-2</v>
+      </c>
+      <c r="I2">
+        <f>(C3*0.012)+(C4*0.014)+(C5*0.001)+(C6*0.016)</f>
+        <v>3.4540000000000001E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>669</v>
+      </c>
+      <c r="B3">
+        <v>0.16270000000000001</v>
+      </c>
+      <c r="C3">
+        <v>1.48</v>
+      </c>
+      <c r="D3">
+        <f>C3*0.012</f>
+        <v>1.7760000000000001E-2</v>
+      </c>
+      <c r="E3">
+        <f>(E$2*D3)/D$2</f>
+        <v>1.2936931094383325E-2</v>
+      </c>
+      <c r="F3">
+        <f>E3/B3</f>
+        <v>7.9514020248207279E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>674</v>
+      </c>
+      <c r="B4">
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="C4">
+        <v>0.12</v>
+      </c>
+      <c r="D4">
+        <f>C4*0.014</f>
+        <v>1.6800000000000001E-3</v>
+      </c>
+      <c r="E4">
+        <f>(E$2*D4)/D$2</f>
+        <v>1.2237637521713956E-3</v>
+      </c>
+      <c r="F4">
+        <f>E4/B4</f>
+        <v>0.19738125035022511</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>676</v>
+      </c>
+      <c r="B5">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="C5">
+        <v>1.5</v>
+      </c>
+      <c r="D5">
+        <f>C5*0.001</f>
+        <v>1.5E-3</v>
+      </c>
+      <c r="E5">
+        <f>(E$2*D5)/D$2</f>
+        <v>1.0926462072958889E-3</v>
+      </c>
+      <c r="F5">
+        <f>E5/B5</f>
+        <v>1.1381731325998842E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>677</v>
+      </c>
+      <c r="B6">
+        <v>22.1005</v>
+      </c>
+      <c r="C6">
+        <v>0.85</v>
+      </c>
+      <c r="D6">
+        <f>C6*0.016</f>
+        <v>1.3599999999999999E-2</v>
+      </c>
+      <c r="E6">
+        <f>(E$2*D6)/D$2</f>
+        <v>9.906658946149392E-3</v>
+      </c>
+      <c r="F6">
+        <f>E6/B6</f>
+        <v>4.4825496917035322E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="597" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35DF1B96-6F36-403A-A03F-B41BA123E54D}">
   <dimension ref="A1:CD107"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="R98" sqref="R98"/>
+    <sheetView topLeftCell="B1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -26015,16 +26230,15 @@
     <col min="1" max="1" width="19.7265625" customWidth="1"/>
     <col min="2" max="2" width="28.26953125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.90625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="15.90625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.81640625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="10.36328125" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="7.36328125" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="6.90625" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="6.26953125" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="7.26953125" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="7.36328125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.81640625" customWidth="1"/>
+    <col min="12" max="12" width="10.36328125" customWidth="1"/>
+    <col min="13" max="13" width="7.36328125" customWidth="1"/>
+    <col min="14" max="14" width="6.90625" customWidth="1"/>
+    <col min="15" max="15" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="7.453125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="7.26953125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7.54296875" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="8.26953125" bestFit="1" customWidth="1"/>
@@ -50146,7 +50360,7 @@
     </row>
     <row r="96" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A96" s="42" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C96">
         <f>100/8</f>
@@ -50539,10 +50753,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A13E0657-BE6C-45BC-B891-D54361BD0D37}">
-  <dimension ref="A1:V49"/>
+  <dimension ref="A1:X55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="97" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView topLeftCell="A2" zoomScale="97" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -50555,7 +50769,7 @@
     <col min="12" max="12" width="13.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>521</v>
       </c>
@@ -50590,16 +50804,22 @@
         <v>437</v>
       </c>
       <c r="O1" t="s">
+        <v>646</v>
+      </c>
+      <c r="P1" t="s">
         <v>647</v>
       </c>
-      <c r="P1" t="s">
-        <v>648</v>
+      <c r="Q1" t="s">
+        <v>655</v>
       </c>
       <c r="R1" t="s">
+        <v>658</v>
+      </c>
+      <c r="T1" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>308</v>
       </c>
@@ -50640,23 +50860,31 @@
         <f>F2*N2*12</f>
         <v>7387.8993708477974</v>
       </c>
-      <c r="R2" t="s">
+      <c r="Q2">
+        <f>G2*N2*1</f>
+        <v>1231.3165618079663</v>
+      </c>
+      <c r="R2">
+        <f>H2*N2*16</f>
+        <v>9850.5324944637305</v>
+      </c>
+      <c r="T2" t="s">
         <v>524</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>309</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>6</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
         <v>525</v>
       </c>
-      <c r="V2" t="s">
+      <c r="X2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -50704,31 +50932,39 @@
         <f>I3*N3*14</f>
         <v>701.45888860103139</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q26" si="1">G3*N3*1</f>
+        <v>300.6252379718706</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R26" si="2">H3*N3*16</f>
+        <v>1002.0841265729019</v>
+      </c>
+      <c r="S3" t="s">
         <v>467</v>
       </c>
-      <c r="R3">
+      <c r="T3">
         <f>(F4-(G4/4)-(H4/2))</f>
         <v>12.25</v>
       </c>
-      <c r="S3">
+      <c r="U3">
         <f>F5-(G5/4)-(H5/2)</f>
         <v>1</v>
       </c>
-      <c r="T3">
+      <c r="V3">
         <f>(F3-(G3/4)-(H3/2)+((3*I3)/4))</f>
         <v>10.5</v>
       </c>
-      <c r="U3">
+      <c r="W3">
         <f>F2-(G2/4)-(H2/2)</f>
         <v>0</v>
       </c>
-      <c r="V3">
+      <c r="X3">
         <f>F7-(G7/4)-(H7/2)</f>
         <v>9.5</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -50762,38 +50998,50 @@
         <v>2</v>
       </c>
       <c r="N4">
-        <f t="shared" ref="N4:N7" si="1">(B4*B$39)/(L4*0.001)</f>
+        <f t="shared" ref="N4:N26" si="3">(B4*B$39)/(L4*0.001)</f>
         <v>12.932143050742685</v>
       </c>
       <c r="O4">
         <f>F4*N4*12</f>
         <v>3879.6429152228052</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="P4">
+        <f t="shared" ref="P4:P26" si="4">I4*N4*14</f>
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="1"/>
+        <v>581.94643728342078</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="2"/>
+        <v>620.74286643564892</v>
+      </c>
+      <c r="S4" t="s">
         <v>468</v>
       </c>
-      <c r="R4">
+      <c r="T4">
         <f>(F4/2)-(G4/8)+(H4/4)</f>
         <v>7.625</v>
       </c>
-      <c r="S4">
+      <c r="U4">
         <f>(F5/2)-(G5/8)+(H5/4)</f>
         <v>5</v>
       </c>
-      <c r="T4">
+      <c r="V4">
         <f>(F3/2)-(G3/8)+(H3/4)+((3*I3)/8)</f>
         <v>7.75</v>
       </c>
-      <c r="U4">
+      <c r="W4">
         <f>(F2/2)-(G2/8)+(H2/4)</f>
         <v>3</v>
       </c>
-      <c r="V4">
+      <c r="X4">
         <f>(F7/2)-(G7/8)+(H7/4)</f>
         <v>7.75</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>309</v>
       </c>
@@ -50827,38 +51075,50 @@
         <v>3</v>
       </c>
       <c r="N5">
+        <f t="shared" si="3"/>
+        <v>5.6728723404255312</v>
+      </c>
+      <c r="O5">
+        <f t="shared" ref="O5:O26" si="5">F5*N5*12</f>
+        <v>680.74468085106378</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <f t="shared" si="1"/>
-        <v>5.6728723404255312</v>
-      </c>
-      <c r="O5">
-        <f t="shared" ref="O5:O7" si="2">F5*N5*12</f>
-        <v>680.74468085106378</v>
-      </c>
-      <c r="Q5" t="s">
+        <v>102.11170212765956</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="2"/>
+        <v>816.89361702127644</v>
+      </c>
+      <c r="S5" t="s">
         <v>469</v>
       </c>
-      <c r="R5">
+      <c r="T5">
         <f>(F4/2)+(G4/8)-(H4/4)</f>
         <v>17.375</v>
       </c>
-      <c r="S5">
+      <c r="U5">
         <f>(F5/2)+(G5/8)-(H5/4)</f>
         <v>5</v>
       </c>
-      <c r="T5">
+      <c r="V5">
         <f>(F3/2)+(G3/8)-(H3/4)-((3*I3)/8)</f>
         <v>8.25</v>
       </c>
-      <c r="U5">
+      <c r="W5">
         <f>(F2/2)+(G2/8)-(H2/4)</f>
         <v>3</v>
       </c>
-      <c r="V5">
+      <c r="X5">
         <f>(F7/2)+(G7/8)-(H7/4)</f>
         <v>12.25</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -50891,22 +51151,34 @@
         <v>4</v>
       </c>
       <c r="N6">
+        <f t="shared" si="3"/>
+        <v>21.6744684251222</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="5"/>
+        <v>1560.5617266087984</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q6">
         <f t="shared" si="1"/>
-        <v>21.6744684251222</v>
-      </c>
-      <c r="O6">
+        <v>260.0936211014664</v>
+      </c>
+      <c r="R6">
         <f t="shared" si="2"/>
-        <v>1560.5617266087984</v>
-      </c>
-      <c r="Q6" t="s">
+        <v>2080.7489688117312</v>
+      </c>
+      <c r="S6" t="s">
         <v>470</v>
       </c>
-      <c r="T6">
+      <c r="V6">
         <f>I3</f>
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -50940,38 +51212,50 @@
         <v>5</v>
       </c>
       <c r="N7">
+        <f t="shared" si="3"/>
+        <v>9.6727819029285094</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="5"/>
+        <v>2321.4676567028419</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q7">
         <f t="shared" si="1"/>
-        <v>9.6727819029285094</v>
-      </c>
-      <c r="O7">
+        <v>290.18345708785529</v>
+      </c>
+      <c r="R7">
         <f t="shared" si="2"/>
-        <v>2321.4676567028419</v>
-      </c>
-      <c r="Q7" t="s">
+        <v>928.5870626811369</v>
+      </c>
+      <c r="S7" t="s">
         <v>523</v>
       </c>
-      <c r="R7">
-        <f>(R5*16)/L4</f>
+      <c r="T7">
+        <f>(T5*16)/L4</f>
         <v>0.70737913486005088</v>
       </c>
-      <c r="S7">
-        <f>(S5*16)/L5</f>
+      <c r="U7">
+        <f>(U5*16)/L5</f>
         <v>0.28368794326241137</v>
       </c>
-      <c r="T7">
-        <f>(T5*16)/L3</f>
+      <c r="V7">
+        <f>(V5*16)/L3</f>
         <v>0.375</v>
       </c>
-      <c r="U7">
-        <f>(U5*16)/L2</f>
+      <c r="W7">
+        <f>(W5*16)/L2</f>
         <v>0.26666666666666666</v>
       </c>
-      <c r="V7">
-        <f>(V5*16)/L7</f>
+      <c r="X7">
+        <f>(X5*16)/L7</f>
         <v>0.53551912568306015</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>282</v>
       </c>
@@ -50992,8 +51276,20 @@
       <c r="M8">
         <v>6</v>
       </c>
+      <c r="P8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -51025,8 +51321,28 @@
       <c r="M9">
         <v>7</v>
       </c>
+      <c r="N9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -51061,8 +51377,28 @@
       <c r="M10">
         <v>8</v>
       </c>
+      <c r="N10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -51094,8 +51430,28 @@
       <c r="M11">
         <v>9</v>
       </c>
+      <c r="N11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -51117,15 +51473,38 @@
       <c r="G12">
         <v>18</v>
       </c>
+      <c r="H12">
+        <v>9</v>
+      </c>
       <c r="L12">
         <f t="shared" si="0"/>
-        <v>138</v>
+        <v>282</v>
       </c>
       <c r="M12">
         <v>10</v>
       </c>
+      <c r="N12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
@@ -51157,14 +51536,33 @@
       <c r="M13">
         <v>11</v>
       </c>
+      <c r="N13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B14">
-        <f>(B39*0.01)/B39/10</f>
-        <v>1E-3</v>
+      <c r="B14" s="39">
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>532</v>
@@ -51194,14 +51592,33 @@
       <c r="M14">
         <v>12</v>
       </c>
+      <c r="N14">
+        <f t="shared" si="3"/>
+        <v>0.49778761061946902</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="5"/>
+        <v>29.867256637168143</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="4"/>
+        <v>6.9690265486725664</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="1"/>
+        <v>3.4845132743362832</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="2"/>
+        <v>15.929203539823009</v>
+      </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B15">
-        <f>(B39*0.01)/B39/10</f>
-        <v>1E-3</v>
+      <c r="B15" s="39">
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>532</v>
@@ -51231,14 +51648,33 @@
       <c r="M15">
         <v>13</v>
       </c>
+      <c r="N15">
+        <f t="shared" si="3"/>
+        <v>0.49778761061946902</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="5"/>
+        <v>29.867256637168143</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="4"/>
+        <v>6.9690265486725664</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="1"/>
+        <v>3.4845132743362832</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="2"/>
+        <v>15.929203539823009</v>
+      </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B16">
-        <f>(B39*0.01)/B39/10</f>
-        <v>1E-3</v>
+      <c r="B16" s="39">
+        <v>1E-4</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>532</v>
@@ -51268,14 +51704,33 @@
       <c r="M16">
         <v>14</v>
       </c>
+      <c r="N16">
+        <f t="shared" si="3"/>
+        <v>9.9557522123893807E-2</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="5"/>
+        <v>5.9734513274336285</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="4"/>
+        <v>1.3938053097345133</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="1"/>
+        <v>0.69690265486725667</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="2"/>
+        <v>3.1858407079646018</v>
+      </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B17">
-        <f>(B39*0.01)/B39/10</f>
-        <v>1E-3</v>
+      <c r="B17" s="39">
+        <v>1E-4</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>532</v>
@@ -51305,14 +51760,33 @@
       <c r="M17">
         <v>15</v>
       </c>
+      <c r="N17">
+        <f t="shared" si="3"/>
+        <v>9.9557522123893807E-2</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="5"/>
+        <v>5.9734513274336285</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="4"/>
+        <v>1.3938053097345133</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="1"/>
+        <v>0.69690265486725667</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="2"/>
+        <v>3.1858407079646018</v>
+      </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B18">
-        <f>(B39*0.01)/B39/10</f>
-        <v>1E-3</v>
+      <c r="B18" s="39">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>532</v>
@@ -51342,14 +51816,33 @@
       <c r="M18">
         <v>16</v>
       </c>
+      <c r="N18">
+        <f t="shared" si="3"/>
+        <v>4.5546558704453446E-3</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="5"/>
+        <v>0.54655870445344135</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="4"/>
+        <v>6.3765182186234823E-2</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="1"/>
+        <v>7.7429149797570859E-2</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="2"/>
+        <v>0.43724696356275305</v>
+      </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B19">
-        <f>(B39*0.01)/B39/10</f>
-        <v>1E-3</v>
+      <c r="B19" s="39">
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>532</v>
@@ -51379,14 +51872,33 @@
       <c r="M19">
         <v>17</v>
       </c>
+      <c r="N19">
+        <f t="shared" si="3"/>
+        <v>4.5546558704453441E-4</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="5"/>
+        <v>5.4655870445344125E-2</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="4"/>
+        <v>6.3765182186234816E-3</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="1"/>
+        <v>7.7429149797570845E-3</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="2"/>
+        <v>4.3724696356275301E-2</v>
+      </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="B20">
-        <f>(B39*0.01)/B39/10</f>
-        <v>1E-3</v>
+      <c r="B20" s="39">
+        <v>1E-4</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>532</v>
@@ -51413,8 +51925,28 @@
         <f t="shared" si="0"/>
         <v>113</v>
       </c>
+      <c r="N20">
+        <f t="shared" si="3"/>
+        <v>9.9557522123893807E-2</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="5"/>
+        <v>5.9734513274336285</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="4"/>
+        <v>1.3938053097345133</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="1"/>
+        <v>0.69690265486725667</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="2"/>
+        <v>3.1858407079646018</v>
+      </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>268</v>
       </c>
@@ -51449,8 +51981,28 @@
       <c r="M21">
         <v>18</v>
       </c>
+      <c r="N21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>343</v>
       </c>
@@ -51474,8 +52026,28 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
+      <c r="N22">
+        <f t="shared" si="3"/>
+        <v>3998.090871004179</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="1"/>
+        <v>7996.181742008358</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="2"/>
+        <v>63969.453936066864</v>
+      </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>351</v>
       </c>
@@ -51495,8 +52067,28 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
+      <c r="N23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>353</v>
       </c>
@@ -51516,17 +52108,37 @@
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
+      <c r="N24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="E25" t="s">
         <v>639</v>
-      </c>
-      <c r="E25" t="s">
-        <v>640</v>
       </c>
       <c r="H25">
         <v>3</v>
@@ -51538,8 +52150,28 @@
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
+      <c r="N25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>383</v>
       </c>
@@ -51563,8 +52195,28 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
+      <c r="N26">
+        <f t="shared" si="3"/>
+        <v>1.406893109783846</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="4"/>
+        <v>19.696503536973843</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="1"/>
+        <v>4.2206793293515377</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>355</v>
       </c>
@@ -51575,7 +52227,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>356</v>
       </c>
@@ -51586,7 +52238,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>357</v>
       </c>
@@ -51597,7 +52249,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>358</v>
       </c>
@@ -51608,7 +52260,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>359</v>
       </c>
@@ -51619,7 +52271,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>360</v>
       </c>
@@ -51630,7 +52282,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>361</v>
       </c>
@@ -51641,7 +52293,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>357</v>
       </c>
@@ -51652,7 +52304,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>358</v>
       </c>
@@ -51663,7 +52315,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>359</v>
       </c>
@@ -51674,7 +52326,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>336</v>
       </c>
@@ -51685,7 +52337,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>368</v>
       </c>
@@ -51696,7 +52348,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>529</v>
       </c>
@@ -51710,63 +52362,111 @@
       <c r="D39" s="2" t="s">
         <v>528</v>
       </c>
+      <c r="G39">
+        <f>SUM(B2:B38)</f>
+        <v>0.98287539740406937</v>
+      </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B41" s="39">
         <v>2E-3</v>
       </c>
       <c r="C41" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>578</v>
-      </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
+        <v>640</v>
+      </c>
+      <c r="B46">
+        <f>SUM(O2:O40)</f>
+        <v>18313.574335839807</v>
+      </c>
+      <c r="D46">
+        <f>SUM(B2:B8)+B22+B26</f>
+        <v>0.98156439740406953</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
         <v>641</v>
-      </c>
-      <c r="B46">
-        <f>SUM(O2:O7)</f>
-        <v>18235.318254008271</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>642</v>
       </c>
       <c r="B47">
         <f>(B46*0.001)/B39</f>
-        <v>0.16209171781340684</v>
+        <v>0.16278732742968716</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B48">
         <f>(P3*0.001)/B39</f>
         <v>6.235190120898057E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B49">
         <f>B47/B48</f>
-        <v>25.996275120807496</v>
+        <v>26.107837014317187</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>656</v>
+      </c>
+      <c r="B51">
+        <f>SUM(Q2:Q25)</f>
+        <v>10771.603665966648</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>657</v>
+      </c>
+      <c r="B52">
+        <f>(B51*0.001)/B39</f>
+        <v>9.5747588141925757E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>659</v>
+      </c>
+      <c r="B54">
+        <f>SUM(R2:R40)</f>
+        <v>79310.939972916749</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>660</v>
+      </c>
+      <c r="B55">
+        <f>(B54*0.001)/B39</f>
+        <v>0.70498613309259339</v>
+      </c>
+      <c r="D55">
+        <f>B47+B48+B52+B55</f>
+        <v>0.96975623878510442</v>
       </c>
     </row>
   </sheetData>
@@ -51779,41 +52479,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD039EB6-CAC1-4780-9B81-62B23D513731}">
   <dimension ref="A1:AL28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
+        <v>604</v>
+      </c>
+      <c r="C1" t="s">
         <v>605</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>606</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>607</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>608</v>
       </c>
-      <c r="F1" t="s">
-        <v>609</v>
-      </c>
       <c r="G1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="L1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B2">
         <v>0.35</v>
@@ -51835,7 +52535,7 @@
         <v>0.71648550724637672</v>
       </c>
       <c r="H2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J2">
         <v>0.71648550724637672</v>
@@ -51919,7 +52619,7 @@
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B3">
         <v>0.35</v>
@@ -51933,15 +52633,15 @@
         <v>2.4906254472591955</v>
       </c>
       <c r="E3">
-        <f>(Variables!L14/Variables!L24)*(stoe!B4/(15-(5*stoe!B4)))</f>
-        <v>0.29323447636700645</v>
+        <f>(Variables!L14/Variables!L24)*(stoe!B4/(16-(5*stoe!B4)))</f>
+        <v>0.26543624161073825</v>
       </c>
       <c r="F3">
         <f>(Variables!L14/Variables!L22)*(stoe!B4/(6-(2*stoe!B4)))</f>
         <v>1.7919884666872614</v>
       </c>
       <c r="H3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="J3">
         <v>1.7919884666872614</v>
@@ -51953,7 +52653,7 @@
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B4">
         <v>0.35</v>
@@ -51975,7 +52675,7 @@
         <v>0.38083634706418507</v>
       </c>
       <c r="H4" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="J4">
         <v>0.38083634706418507</v>
@@ -51987,7 +52687,7 @@
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B5">
         <v>0.35</v>
@@ -52009,7 +52709,7 @@
         <v>0.71648550724637672</v>
       </c>
       <c r="H5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="J5">
         <v>0.71648550724637672</v>
@@ -52021,7 +52721,7 @@
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B6">
         <v>0.35</v>
@@ -52036,14 +52736,14 @@
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
-        <v>0.29323447636700645</v>
+        <v>0.26543624161073825</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
         <v>1.7919884666872614</v>
       </c>
       <c r="H6" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J6">
         <v>1.7919884666872614</v>
@@ -52055,7 +52755,7 @@
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B7">
         <v>0.35</v>
@@ -52077,7 +52777,7 @@
         <v>0.38083634706418507</v>
       </c>
       <c r="H7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="J7">
         <v>0.38083634706418507</v>
@@ -52089,7 +52789,7 @@
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B8">
         <v>0.35</v>
@@ -52111,7 +52811,7 @@
         <v>0.71648550724637672</v>
       </c>
       <c r="H8" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J8">
         <v>0.71648550724637672</v>
@@ -52123,7 +52823,7 @@
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B9">
         <v>0.35</v>
@@ -52138,14 +52838,14 @@
       </c>
       <c r="E9">
         <f t="shared" si="4"/>
-        <v>0.29323447636700645</v>
+        <v>0.26543624161073825</v>
       </c>
       <c r="F9">
         <f t="shared" si="4"/>
         <v>1.7919884666872614</v>
       </c>
       <c r="H9" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="J9">
         <v>1.7919884666872614</v>
@@ -52157,7 +52857,7 @@
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B10">
         <v>0.35</v>
@@ -52179,7 +52879,7 @@
         <v>0.38083634706418507</v>
       </c>
       <c r="H10" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J10">
         <v>0.38083634706418507</v>
@@ -52191,14 +52891,14 @@
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B11">
         <v>0.35</v>
       </c>
       <c r="C11">
         <f>(Variables!L16/Variables!L23)*(stoe!B6/(10-(5*stoe!B6)))</f>
-        <v>0.19196328081035452</v>
+        <v>0.54757953652788671</v>
       </c>
       <c r="D11">
         <f>(Variables!L16/Variables!L26)</f>
@@ -52206,26 +52906,26 @@
       </c>
       <c r="E11">
         <f>(Variables!L16/Variables!L24)*(stoe!B6/(10-(5*stoe!B6)))</f>
-        <v>0.13960965877116693</v>
+        <v>0.39823966292937218</v>
       </c>
       <c r="F11">
         <f>(Variables!L16/Variables!L22)*(stoe!B6/(9-(2*stoe!B6)))</f>
-        <v>0.32944009850789513</v>
+        <v>0.75599886123312166</v>
       </c>
       <c r="H11" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="J11">
         <v>0.32944009850789513</v>
       </c>
       <c r="L11">
         <f>C11*(Variables!L$23/Variables!L$14)</f>
-        <v>5.4361283061339333E-2</v>
+        <v>0.15506677140612721</v>
       </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B12">
         <v>0.35</v>
@@ -52247,7 +52947,7 @@
         <v>0.71648550724637672</v>
       </c>
       <c r="H12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="J12">
         <v>0.71648550724637672</v>
@@ -52259,7 +52959,7 @@
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B13">
         <v>0.35</v>
@@ -52274,14 +52974,14 @@
       </c>
       <c r="E13">
         <f t="shared" si="7"/>
-        <v>0.29323447636700645</v>
+        <v>0.26543624161073825</v>
       </c>
       <c r="F13">
         <f t="shared" si="7"/>
         <v>1.7919884666872614</v>
       </c>
       <c r="H13" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="J13">
         <v>1.7919884666872614</v>
@@ -52293,7 +52993,7 @@
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B14">
         <v>0.35</v>
@@ -52315,7 +53015,7 @@
         <v>0.38083634706418507</v>
       </c>
       <c r="H14" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="J14">
         <v>0.38083634706418507</v>
@@ -52327,14 +53027,14 @@
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B15">
         <v>0.35</v>
       </c>
       <c r="C15">
         <f t="shared" ref="C15:F15" si="9">C11</f>
-        <v>0.19196328081035452</v>
+        <v>0.54757953652788671</v>
       </c>
       <c r="D15">
         <f t="shared" si="9"/>
@@ -52342,26 +53042,26 @@
       </c>
       <c r="E15">
         <f t="shared" si="9"/>
-        <v>0.13960965877116693</v>
+        <v>0.39823966292937218</v>
       </c>
       <c r="F15">
         <f t="shared" si="9"/>
-        <v>0.32944009850789513</v>
+        <v>0.75599886123312166</v>
       </c>
       <c r="H15" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="J15">
         <v>0.32944009850789513</v>
       </c>
       <c r="L15">
         <f>C15*(Variables!L$23/Variables!L$14)</f>
-        <v>5.4361283061339333E-2</v>
+        <v>0.15506677140612721</v>
       </c>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B16">
         <v>0.35</v>
@@ -52383,7 +53083,7 @@
         <v>0.83045148895292964</v>
       </c>
       <c r="H16" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="J16">
         <v>0.83045148895292964</v>
@@ -52395,7 +53095,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B17">
         <v>0.35</v>
@@ -52417,7 +53117,7 @@
         <v>2.7284986729789824</v>
       </c>
       <c r="H17" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="J17">
         <v>2.7284986729789824</v>
@@ -52429,7 +53129,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B18">
         <v>0.35</v>
@@ -52451,7 +53151,7 @@
         <v>0.41080205601442249</v>
       </c>
       <c r="H18" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J18">
         <v>0.41080205601442249</v>
@@ -52463,14 +53163,14 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B19">
         <v>0.35</v>
       </c>
       <c r="C19">
         <f>(Variables!L19/Variables!L23)*(stoe!B10/(10-((21/2)*stoe!B10)))</f>
-        <v>0.18993587130957534</v>
+        <v>0.53139931294248943</v>
       </c>
       <c r="D19">
         <f>Variables!L19/Variables!L26</f>
@@ -52478,26 +53178,26 @@
       </c>
       <c r="E19">
         <f>(Variables!L19/Variables!L24)*(stoe!B10/(10-(10*stoe!B10)))</f>
-        <v>0.13645628402800014</v>
+        <v>0.37361153681113224</v>
       </c>
       <c r="F19">
         <f>(Variables!L19/Variables!L22)*(stoe!B10/(9-(7*stoe!B10)))</f>
-        <v>0.35162784939961444</v>
+        <v>0.88400452537910901</v>
       </c>
       <c r="H19" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J19">
         <v>0.35162784939961444</v>
       </c>
       <c r="L19">
         <f>C19*(Variables!L$23/Variables!L$18)</f>
-        <v>2.4607076444965226E-2</v>
+        <v>6.884525511805531E-2</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B20">
         <v>0.35</v>
@@ -52519,7 +53219,7 @@
         <v>0.6259362128927346</v>
       </c>
       <c r="H20" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="J20">
         <v>0.6259362128927346</v>
@@ -52531,7 +53231,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B21">
         <v>0.35</v>
@@ -52553,7 +53253,7 @@
         <v>0.83045148895292964</v>
       </c>
       <c r="H21" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="J21">
         <v>0.83045148895292964</v>
@@ -52565,7 +53265,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B22">
         <v>0.35</v>
@@ -52587,7 +53287,7 @@
         <v>2.7284986729789824</v>
       </c>
       <c r="H22" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="J22">
         <v>2.7284986729789824</v>
@@ -52599,7 +53299,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B23">
         <v>0.35</v>
@@ -52621,7 +53321,7 @@
         <v>0.41080205601442249</v>
       </c>
       <c r="H23" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J23">
         <v>0.41080205601442249</v>
@@ -52633,14 +53333,14 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B24">
         <v>0.35</v>
       </c>
       <c r="C24">
         <f t="shared" ref="C24:F24" si="13">C19</f>
-        <v>0.18993587130957534</v>
+        <v>0.53139931294248943</v>
       </c>
       <c r="D24">
         <f t="shared" si="13"/>
@@ -52648,26 +53348,26 @@
       </c>
       <c r="E24">
         <f t="shared" si="13"/>
-        <v>0.13645628402800014</v>
+        <v>0.37361153681113224</v>
       </c>
       <c r="F24">
         <f t="shared" si="13"/>
-        <v>0.35162784939961444</v>
+        <v>0.88400452537910901</v>
       </c>
       <c r="H24" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="J24">
         <v>0.35162784939961444</v>
       </c>
       <c r="L24">
         <f>C24*(Variables!L$23/Variables!L$18)</f>
-        <v>2.4607076444965226E-2</v>
+        <v>6.884525511805531E-2</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B25">
         <v>0.35</v>
@@ -52689,7 +53389,7 @@
         <v>0.6259362128927346</v>
       </c>
       <c r="H25" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J25">
         <v>0.6259362128927346</v>
@@ -52701,7 +53401,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B26">
         <v>0.13</v>
@@ -52719,12 +53419,12 @@
         <v>3.9055299539170509E-2</v>
       </c>
       <c r="H26" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
   </sheetData>
@@ -52738,7 +53438,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -52795,7 +53495,7 @@
       </c>
       <c r="B6" s="2">
         <f>B2*(Variables!L12)/Variables!L16</f>
-        <v>0.42743362831858406</v>
+        <v>0.87345132743362819</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -52831,7 +53531,7 @@
       </c>
       <c r="B10" s="2">
         <f>B2*(Variables!L12)/Variables!L18</f>
-        <v>0.19554655870445342</v>
+        <v>0.39959514170040483</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -52910,10 +53610,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99E22A85-0A6D-4692-91B9-50CA4D04329A}">
-  <dimension ref="A1:K76"/>
+  <dimension ref="A1:K79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A13"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -53588,10 +54288,10 @@
         <v>440</v>
       </c>
       <c r="B28" s="2">
-        <v>4.2000000000000003E-2</v>
+        <v>0.01</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>537</v>
+        <v>255</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>442</v>
@@ -53970,7 +54670,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="34" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" s="34" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" s="34" t="s">
         <v>403</v>
       </c>
@@ -53987,7 +54687,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="34" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" s="34" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" s="34" t="s">
         <v>407</v>
       </c>
@@ -54004,7 +54704,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="34" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" s="34" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" s="34" t="s">
         <v>414</v>
       </c>
@@ -54024,7 +54724,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="52" spans="1:8" s="34" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" s="34" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" s="34" t="s">
         <v>415</v>
       </c>
@@ -54035,7 +54735,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="53" spans="1:8" s="34" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" s="34" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" s="34" t="s">
         <v>416</v>
       </c>
@@ -54052,7 +54752,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="54" spans="1:8" s="34" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" s="34" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" s="34" t="s">
         <v>417</v>
       </c>
@@ -54069,7 +54769,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="34" t="s">
         <v>418</v>
       </c>
@@ -54083,7 +54783,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>429</v>
       </c>
@@ -54104,9 +54804,9 @@
         <v>507</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="26" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B57" s="26">
         <v>0.2</v>
@@ -54121,268 +54821,308 @@
         <v>506</v>
       </c>
       <c r="G57" s="23" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" s="26" t="s">
+        <v>663</v>
+      </c>
+      <c r="B58" s="26">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="C58" s="26" t="s">
+        <v>661</v>
+      </c>
+      <c r="D58" s="27" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" s="26" t="s">
+        <v>664</v>
+      </c>
+      <c r="B59" s="26">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="C59" s="26" t="s">
+        <v>665</v>
+      </c>
+      <c r="D59" s="27" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60" s="26" t="s">
+        <v>667</v>
+      </c>
+      <c r="B60" s="26">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="C60" s="26" t="s">
+        <v>668</v>
+      </c>
+      <c r="D60" s="27"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61" s="23" t="s">
+        <v>471</v>
+      </c>
+      <c r="B61" s="38">
+        <v>5.352E-4</v>
+      </c>
+      <c r="C61" s="26" t="s">
+        <v>556</v>
+      </c>
+      <c r="D61" s="27" t="s">
+        <v>489</v>
+      </c>
+      <c r="F61" s="37" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62" s="23" t="s">
+        <v>488</v>
+      </c>
+      <c r="B62" s="26">
+        <v>0.72</v>
+      </c>
+      <c r="C62" s="26" t="s">
+        <v>530</v>
+      </c>
+      <c r="D62" s="27" t="s">
+        <v>510</v>
+      </c>
+      <c r="F62" s="23" t="s">
+        <v>555</v>
+      </c>
+      <c r="G62" s="23" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A63" s="23" t="s">
+        <v>515</v>
+      </c>
+      <c r="B63" s="26">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="C63" s="23" t="s">
+        <v>535</v>
+      </c>
+      <c r="D63" s="23" t="s">
+        <v>516</v>
+      </c>
+      <c r="F63" s="23" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A64" s="23" t="s">
+        <v>517</v>
+      </c>
+      <c r="B64" s="38">
+        <v>400000</v>
+      </c>
+      <c r="C64" s="23" t="s">
+        <v>554</v>
+      </c>
+      <c r="D64" s="23" t="s">
+        <v>518</v>
+      </c>
+      <c r="F64" s="23" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A65" s="23" t="s">
+        <v>526</v>
+      </c>
+      <c r="B65" s="36">
+        <v>1.9000000000000001E-5</v>
+      </c>
+      <c r="C65" s="23" t="s">
+        <v>535</v>
+      </c>
+      <c r="G65" s="26">
+        <v>0.6</v>
+      </c>
+      <c r="H65" s="23" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A66" s="23" t="s">
+        <v>337</v>
+      </c>
+      <c r="B66" s="26">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A67" s="23" t="s">
+        <v>340</v>
+      </c>
+      <c r="B67" s="26">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A68" s="23" t="s">
+        <v>549</v>
+      </c>
+      <c r="B68" s="23">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="C68" s="23" t="s">
         <v>539</v>
       </c>
+      <c r="D68" s="23" t="s">
+        <v>540</v>
+      </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A58" s="23" t="s">
-        <v>471</v>
-      </c>
-      <c r="B58" s="38">
-        <v>5.352E-4</v>
-      </c>
-      <c r="C58" s="26" t="s">
-        <v>557</v>
-      </c>
-      <c r="D58" s="27" t="s">
-        <v>489</v>
-      </c>
-      <c r="F58" s="37" t="s">
-        <v>558</v>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A69" s="23" t="s">
+        <v>550</v>
+      </c>
+      <c r="B69" s="23">
+        <v>0.375</v>
+      </c>
+      <c r="C69" s="23" t="s">
+        <v>541</v>
+      </c>
+      <c r="D69" s="23" t="s">
+        <v>542</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A59" s="23" t="s">
-        <v>488</v>
-      </c>
-      <c r="B59" s="26">
-        <v>0.72</v>
-      </c>
-      <c r="C59" s="26" t="s">
-        <v>530</v>
-      </c>
-      <c r="D59" s="27" t="s">
-        <v>510</v>
-      </c>
-      <c r="F59" s="23" t="s">
-        <v>556</v>
-      </c>
-      <c r="G59" s="23" t="s">
-        <v>508</v>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A70" s="23" t="s">
+        <v>551</v>
+      </c>
+      <c r="B70" s="23">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="C70" s="23" t="s">
+        <v>543</v>
+      </c>
+      <c r="D70" s="23" t="s">
+        <v>544</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A60" s="23" t="s">
-        <v>515</v>
-      </c>
-      <c r="B60" s="26">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="C60" s="23" t="s">
-        <v>535</v>
-      </c>
-      <c r="D60" s="23" t="s">
-        <v>516</v>
-      </c>
-      <c r="F60" s="23" t="s">
-        <v>556</v>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A71" s="23" t="s">
+        <v>552</v>
+      </c>
+      <c r="B71" s="23">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="C71" s="23" t="s">
+        <v>545</v>
+      </c>
+      <c r="D71" s="23" t="s">
+        <v>546</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A61" s="23" t="s">
-        <v>517</v>
-      </c>
-      <c r="B61" s="38">
-        <v>400000</v>
-      </c>
-      <c r="C61" s="23" t="s">
-        <v>555</v>
-      </c>
-      <c r="D61" s="23" t="s">
-        <v>518</v>
-      </c>
-      <c r="F61" s="23" t="s">
-        <v>519</v>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A72" s="23" t="s">
+        <v>553</v>
+      </c>
+      <c r="B72" s="23">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="C72" s="23" t="s">
+        <v>547</v>
+      </c>
+      <c r="D72" s="23" t="s">
+        <v>548</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A62" s="23" t="s">
-        <v>526</v>
-      </c>
-      <c r="B62" s="36">
-        <v>1.9000000000000001E-5</v>
-      </c>
-      <c r="C62" s="23" t="s">
-        <v>535</v>
-      </c>
-      <c r="G62" s="26">
-        <v>0.6</v>
-      </c>
-      <c r="H62" s="23" t="s">
-        <v>335</v>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A73" s="23" t="s">
+        <v>560</v>
+      </c>
+      <c r="B73" s="23">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="C73" s="23" t="s">
+        <v>562</v>
+      </c>
+      <c r="D73" t="s">
+        <v>561</v>
+      </c>
+      <c r="F73" t="s">
+        <v>563</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A63" s="23" t="s">
-        <v>337</v>
-      </c>
-      <c r="B63" s="26">
-        <v>0.4</v>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A74" s="23" t="s">
+        <v>564</v>
+      </c>
+      <c r="B74" s="23">
+        <v>440</v>
+      </c>
+      <c r="C74" s="23" t="s">
+        <v>565</v>
+      </c>
+      <c r="D74" s="23" t="s">
+        <v>566</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A64" s="23" t="s">
-        <v>340</v>
-      </c>
-      <c r="B64" s="26">
-        <v>0.6</v>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A75" s="26" t="s">
+        <v>511</v>
+      </c>
+      <c r="B75" s="26">
+        <v>0.44</v>
+      </c>
+      <c r="C75" s="26" t="s">
+        <v>512</v>
+      </c>
+      <c r="D75" s="27" t="s">
+        <v>513</v>
+      </c>
+      <c r="E75" s="26"/>
+      <c r="F75" s="26" t="s">
+        <v>514</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A65" s="23" t="s">
-        <v>550</v>
-      </c>
-      <c r="B65" s="23">
-        <v>0.26700000000000002</v>
-      </c>
-      <c r="C65" s="23" t="s">
-        <v>540</v>
-      </c>
-      <c r="D65" s="23" t="s">
-        <v>541</v>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A76" s="23" t="s">
+        <v>567</v>
+      </c>
+      <c r="B76" s="36">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="C76" s="23" t="s">
+        <v>569</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A66" s="23" t="s">
-        <v>551</v>
-      </c>
-      <c r="B66" s="23">
-        <v>0.375</v>
-      </c>
-      <c r="C66" s="23" t="s">
-        <v>542</v>
-      </c>
-      <c r="D66" s="23" t="s">
-        <v>543</v>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A77" s="23" t="s">
+        <v>568</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A67" s="23" t="s">
-        <v>552</v>
-      </c>
-      <c r="B67" s="23">
-        <v>0.70699999999999996</v>
-      </c>
-      <c r="C67" s="23" t="s">
-        <v>544</v>
-      </c>
-      <c r="D67" s="23" t="s">
-        <v>545</v>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A78" s="23" t="s">
+        <v>643</v>
+      </c>
+      <c r="B78" s="36">
+        <v>600</v>
+      </c>
+      <c r="C78" s="23" t="s">
+        <v>644</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A68" s="23" t="s">
-        <v>553</v>
-      </c>
-      <c r="B68" s="23">
-        <v>0.28399999999999997</v>
-      </c>
-      <c r="C68" s="23" t="s">
-        <v>546</v>
-      </c>
-      <c r="D68" s="23" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A69" s="23" t="s">
-        <v>554</v>
-      </c>
-      <c r="B69" s="23">
-        <v>0.53500000000000003</v>
-      </c>
-      <c r="C69" s="23" t="s">
-        <v>548</v>
-      </c>
-      <c r="D69" s="23" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A70" s="23" t="s">
-        <v>561</v>
-      </c>
-      <c r="B70" s="23">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="C70" s="23" t="s">
-        <v>563</v>
-      </c>
-      <c r="D70" t="s">
-        <v>562</v>
-      </c>
-      <c r="F70" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A71" s="23" t="s">
-        <v>565</v>
-      </c>
-      <c r="B71" s="23">
-        <v>440</v>
-      </c>
-      <c r="C71" s="23" t="s">
-        <v>566</v>
-      </c>
-      <c r="D71" s="23" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A72" s="26" t="s">
-        <v>511</v>
-      </c>
-      <c r="B72" s="26">
-        <v>0.44</v>
-      </c>
-      <c r="C72" s="26" t="s">
-        <v>512</v>
-      </c>
-      <c r="D72" s="27" t="s">
-        <v>513</v>
-      </c>
-      <c r="E72" s="26"/>
-      <c r="F72" s="26" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A73" s="23" t="s">
-        <v>568</v>
-      </c>
-      <c r="B73" s="36">
-        <v>1.0049999999999999</v>
-      </c>
-      <c r="C73" s="23" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A74" s="23" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A75" s="23" t="s">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A79" s="23" t="s">
+        <v>645</v>
+      </c>
+      <c r="B79" s="23">
+        <v>1.2929999999999999</v>
+      </c>
+      <c r="C79" s="23" t="s">
         <v>644</v>
-      </c>
-      <c r="B75" s="36">
-        <v>600</v>
-      </c>
-      <c r="C75" s="23" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A76" s="23" t="s">
-        <v>646</v>
-      </c>
-      <c r="B76" s="23">
-        <v>1.2929999999999999</v>
-      </c>
-      <c r="C76" s="23" t="s">
-        <v>645</v>
       </c>
     </row>
   </sheetData>
@@ -54395,8 +55135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68CD580C-396B-4BB3-AD93-6F2493BB33D0}">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -54419,7 +55159,7 @@
         <v>411</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="J1" t="s">
         <v>460</v>
@@ -54631,10 +55371,10 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="B13" s="30" t="s">
         <v>579</v>
-      </c>
-      <c r="B13" s="30" t="s">
-        <v>580</v>
       </c>
       <c r="G13" s="31"/>
     </row>
@@ -54698,31 +55438,31 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B2">
         <f>0.0000015*3600*('Composition (mass)'!C98-aer!D97)</f>
         <v>0.60750000000000004</v>
       </c>
       <c r="C2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B3">
         <f>0.0006*1.2*60*'Composition (mass)'!C98</f>
         <v>4.8599999999999994</v>
       </c>
       <c r="C3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
   </sheetData>

--- a/Data Finland +WC  8_1.xlsx
+++ b/Data Finland +WC  8_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\hravoaha\Desktop\Thèse\composting code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2839F259-D370-4F7F-B92B-4E2D07A93364}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312DDFAE-C7D7-4C55-B998-DF929F3754DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" firstSheet="1" activeTab="9" xr2:uid="{14B8D0C9-091E-43B5-9C59-8A05020574F1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" firstSheet="1" activeTab="1" xr2:uid="{14B8D0C9-091E-43B5-9C59-8A05020574F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Composition of waste" sheetId="4" r:id="rId1"/>
@@ -26073,7 +26073,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32535CBA-ADF9-47F6-911B-0E085DE161C1}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -26221,8 +26221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35DF1B96-6F36-403A-A03F-B41BA123E54D}">
   <dimension ref="A1:CD107"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="85" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -50755,17 +50755,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A13E0657-BE6C-45BC-B891-D54361BD0D37}">
   <dimension ref="A1:X55"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="97" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="A37" zoomScale="85" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.08984375" customWidth="1"/>
-    <col min="2" max="2" width="12.81640625" customWidth="1"/>
-    <col min="3" max="3" width="10.90625" customWidth="1"/>
-    <col min="4" max="4" width="24.453125" customWidth="1"/>
-    <col min="5" max="11" width="10.90625" customWidth="1"/>
+    <col min="1" max="1" width="16.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.90625" customWidth="1"/>
+    <col min="6" max="11" width="10.90625" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="13.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
